--- a/Info_praktikum/BS-Praktikum/Aufgabe1/Threads.xlsx
+++ b/Info_praktikum/BS-Praktikum/Aufgabe1/Threads.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fabian\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\daten\Informatik\repos\fah5625\Info_praktikum\BS-Praktikum\Aufgabe1\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80A8105D-A15D-4C66-A5B8-DA290285A807}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12312"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -18,17 +19,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -46,8 +36,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -174,7 +164,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -197,10 +187,7 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -257,7 +244,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -528,6 +514,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -631,7 +618,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -660,7 +646,6 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -668,6 +653,7 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1607,17 +1593,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A11:Q13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="16.296875" defaultRowHeight="29.25" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="16.28515625" defaultRowHeight="29.25" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="11" spans="1:17" ht="29.25" customHeight="1" thickBot="1"/>
-    <row r="12" spans="1:17" ht="29.25" customHeight="1">
+    <row r="11" spans="1:17" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:17" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>0</v>
       </c>
@@ -1651,14 +1637,14 @@
       <c r="K12" s="4">
         <v>64</v>
       </c>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="8"/>
-      <c r="O12" s="8"/>
-      <c r="P12" s="8"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
     </row>
-    <row r="13" spans="1:17" ht="29.25" customHeight="1" thickBot="1">
+    <row r="13" spans="1:17" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>1</v>
       </c>
@@ -1692,11 +1678,11 @@
       <c r="K13" s="7">
         <v>17.978209</v>
       </c>
-      <c r="L13" s="9"/>
-      <c r="M13" s="9"/>
-      <c r="N13" s="9"/>
-      <c r="O13" s="9"/>
-      <c r="P13" s="9"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="8"/>
+      <c r="P13" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
